--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/67/correct_predictions_67.xlsx
@@ -2087,21 +2087,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2126,52 +2126,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2186,52 +2186,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2246,52 +2246,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2306,52 +2306,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2366,52 +2366,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2426,52 +2426,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2486,52 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>RTH Altitude : 98FT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2546,52 +2546,52 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2606,42 +2606,42 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori2/67/correct_predictions_67.xlsx
@@ -2087,21 +2087,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Large Wind Velocity . Fly with caution .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2126,52 +2126,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
+          <t>Large Wind Velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Max Altitude Approached</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2186,52 +2186,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Max Altitude Approached</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
+          <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2246,52 +2246,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10-12</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing . Fly with caution .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>10-12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2306,52 +2306,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Manually adjust flight route or return to home</t>
+          <t>Remote controller in high interference environment</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
+          <t>Remote controller in high interference environment . Manually adjust flight route or return to home .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2366,52 +2366,52 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
+          <t>Remote Controller Right Dial Locked . Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2426,52 +2426,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
+          <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2486,52 +2486,52 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+          <t>RTH Altitude : 98FT . Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Running Flight Simulator</t>
+          <t>RTH Altitude : 98FT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2546,52 +2546,52 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Running Flight Simulator</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2606,42 +2606,42 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
